--- a/trunk/Documents/Report/TasksheetFinal.xlsx
+++ b/trunk/Documents/Report/TasksheetFinal.xlsx
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="158">
   <si>
     <t>No.</t>
   </si>
@@ -823,6 +823,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="5"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -837,25 +856,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1154,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="I132" sqref="I132"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="F138" sqref="F138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1894,10 +1894,10 @@
       <c r="I47" s="13"/>
     </row>
     <row r="48" spans="1:9" ht="15.75">
-      <c r="A48" s="26">
+      <c r="A48" s="33">
         <v>4</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="33" t="s">
         <v>6</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -1913,8 +1913,8 @@
       <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" ht="15.75">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="34"/>
       <c r="C49" s="3" t="s">
         <v>30</v>
       </c>
@@ -1928,8 +1928,8 @@
       <c r="I49" s="13"/>
     </row>
     <row r="50" spans="1:9" ht="15.75">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="34"/>
       <c r="C50" s="9" t="s">
         <v>31</v>
       </c>
@@ -1941,8 +1941,8 @@
       <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:9" ht="15.75">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="34"/>
       <c r="C51" s="10" t="s">
         <v>77</v>
       </c>
@@ -1956,8 +1956,8 @@
       <c r="I51" s="13"/>
     </row>
     <row r="52" spans="1:9" ht="15.75">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="34"/>
       <c r="C52" s="10" t="s">
         <v>78</v>
       </c>
@@ -1971,8 +1971,8 @@
       <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9" ht="15.75">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="34"/>
       <c r="C53" s="10" t="s">
         <v>79</v>
       </c>
@@ -1986,8 +1986,8 @@
       <c r="I53" s="13"/>
     </row>
     <row r="54" spans="1:9" ht="15.75">
-      <c r="A54" s="27"/>
-      <c r="B54" s="27"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
       <c r="C54" s="10" t="s">
         <v>80</v>
       </c>
@@ -2001,8 +2001,8 @@
       <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" ht="15.75">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="34"/>
       <c r="C55" s="10" t="s">
         <v>81</v>
       </c>
@@ -2016,8 +2016,8 @@
       <c r="I55" s="13"/>
     </row>
     <row r="56" spans="1:9" ht="15.75">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="34"/>
       <c r="C56" s="10" t="s">
         <v>82</v>
       </c>
@@ -2031,8 +2031,8 @@
       <c r="I56" s="13"/>
     </row>
     <row r="57" spans="1:9" ht="15.75">
-      <c r="A57" s="27"/>
-      <c r="B57" s="27"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="34"/>
       <c r="C57" s="10" t="s">
         <v>83</v>
       </c>
@@ -2046,8 +2046,8 @@
       <c r="I57" s="13"/>
     </row>
     <row r="58" spans="1:9" ht="15.75">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27"/>
+      <c r="A58" s="34"/>
+      <c r="B58" s="34"/>
       <c r="C58" s="10" t="s">
         <v>84</v>
       </c>
@@ -2061,8 +2061,8 @@
       <c r="I58" s="13"/>
     </row>
     <row r="59" spans="1:9" ht="15.75">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="34"/>
       <c r="C59" s="10" t="s">
         <v>85</v>
       </c>
@@ -2076,8 +2076,8 @@
       <c r="I59" s="13"/>
     </row>
     <row r="60" spans="1:9" ht="15.75">
-      <c r="A60" s="27"/>
-      <c r="B60" s="27"/>
+      <c r="A60" s="34"/>
+      <c r="B60" s="34"/>
       <c r="C60" s="10" t="s">
         <v>86</v>
       </c>
@@ -2091,8 +2091,8 @@
       <c r="I60" s="13"/>
     </row>
     <row r="61" spans="1:9" ht="15.75">
-      <c r="A61" s="27"/>
-      <c r="B61" s="27"/>
+      <c r="A61" s="34"/>
+      <c r="B61" s="34"/>
       <c r="C61" s="10" t="s">
         <v>87</v>
       </c>
@@ -2106,9 +2106,9 @@
       <c r="I61" s="13"/>
     </row>
     <row r="62" spans="1:9" ht="15.75">
-      <c r="A62" s="27"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="31" t="s">
+      <c r="A62" s="34"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="24" t="s">
         <v>22</v>
       </c>
       <c r="D62" s="1"/>
@@ -2119,9 +2119,9 @@
       <c r="I62" s="13"/>
     </row>
     <row r="63" spans="1:9" ht="15.75">
-      <c r="A63" s="27"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="30" t="s">
+      <c r="A63" s="34"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="23" t="s">
         <v>91</v>
       </c>
       <c r="D63" s="1"/>
@@ -2134,9 +2134,9 @@
       <c r="I63" s="13"/>
     </row>
     <row r="64" spans="1:9" ht="15.75">
-      <c r="A64" s="27"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="30" t="s">
+      <c r="A64" s="34"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="23" t="s">
         <v>92</v>
       </c>
       <c r="D64" s="1"/>
@@ -2149,9 +2149,9 @@
       <c r="I64" s="13"/>
     </row>
     <row r="65" spans="1:9" ht="15.75">
-      <c r="A65" s="27"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="30" t="s">
+      <c r="A65" s="34"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="23" t="s">
         <v>93</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -2164,9 +2164,9 @@
       <c r="I65" s="13"/>
     </row>
     <row r="66" spans="1:9" ht="15.75">
-      <c r="A66" s="27"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="30" t="s">
+      <c r="A66" s="34"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="23" t="s">
         <v>94</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -2179,9 +2179,9 @@
       <c r="I66" s="13"/>
     </row>
     <row r="67" spans="1:9" ht="15.75">
-      <c r="A67" s="27"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="30" t="s">
+      <c r="A67" s="34"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="23" t="s">
         <v>95</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -2194,9 +2194,9 @@
       <c r="I67" s="13"/>
     </row>
     <row r="68" spans="1:9" ht="15.75">
-      <c r="A68" s="27"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="30" t="s">
+      <c r="A68" s="34"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="23" t="s">
         <v>96</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -2209,9 +2209,9 @@
       <c r="I68" s="13"/>
     </row>
     <row r="69" spans="1:9" ht="15.75">
-      <c r="A69" s="27"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="30" t="s">
+      <c r="A69" s="34"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="23" t="s">
         <v>97</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -2224,9 +2224,9 @@
       <c r="I69" s="13"/>
     </row>
     <row r="70" spans="1:9" ht="15.75">
-      <c r="A70" s="27"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="30" t="s">
+      <c r="A70" s="34"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="23" t="s">
         <v>98</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -2239,9 +2239,9 @@
       <c r="I70" s="13"/>
     </row>
     <row r="71" spans="1:9" ht="15.75">
-      <c r="A71" s="27"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="30" t="s">
+      <c r="A71" s="34"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="23" t="s">
         <v>99</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -2254,9 +2254,9 @@
       <c r="I71" s="13"/>
     </row>
     <row r="72" spans="1:9" ht="15.75">
-      <c r="A72" s="27"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="30" t="s">
+      <c r="A72" s="34"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="23" t="s">
         <v>100</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -2269,9 +2269,9 @@
       <c r="I72" s="13"/>
     </row>
     <row r="73" spans="1:9" ht="15.75">
-      <c r="A73" s="27"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="30" t="s">
+      <c r="A73" s="34"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="23" t="s">
         <v>101</v>
       </c>
       <c r="D73" s="1" t="s">
@@ -2284,9 +2284,9 @@
       <c r="I73" s="13"/>
     </row>
     <row r="74" spans="1:9" ht="15.75">
-      <c r="A74" s="27"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="31" t="s">
+      <c r="A74" s="34"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D74" s="1"/>
@@ -2297,8 +2297,8 @@
       <c r="I74" s="13"/>
     </row>
     <row r="75" spans="1:9" ht="15.75">
-      <c r="A75" s="27"/>
-      <c r="B75" s="27"/>
+      <c r="A75" s="34"/>
+      <c r="B75" s="34"/>
       <c r="C75" s="10" t="s">
         <v>88</v>
       </c>
@@ -2312,8 +2312,8 @@
       <c r="I75" s="13"/>
     </row>
     <row r="76" spans="1:9" ht="15.75">
-      <c r="A76" s="27"/>
-      <c r="B76" s="27"/>
+      <c r="A76" s="34"/>
+      <c r="B76" s="34"/>
       <c r="C76" s="10" t="s">
         <v>89</v>
       </c>
@@ -2327,8 +2327,8 @@
       <c r="I76" s="13"/>
     </row>
     <row r="77" spans="1:9" ht="15.75">
-      <c r="A77" s="27"/>
-      <c r="B77" s="27"/>
+      <c r="A77" s="34"/>
+      <c r="B77" s="34"/>
       <c r="C77" s="10" t="s">
         <v>90</v>
       </c>
@@ -2342,9 +2342,9 @@
       <c r="I77" s="13"/>
     </row>
     <row r="78" spans="1:9" ht="15.75">
-      <c r="A78" s="27"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="33" t="s">
+      <c r="A78" s="34"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="26" t="s">
         <v>102</v>
       </c>
       <c r="D78" s="1"/>
@@ -2355,9 +2355,9 @@
       <c r="I78" s="13"/>
     </row>
     <row r="79" spans="1:9" ht="15.75">
-      <c r="A79" s="27"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="34" t="s">
+      <c r="A79" s="34"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="27" t="s">
         <v>103</v>
       </c>
       <c r="D79" s="1"/>
@@ -2370,9 +2370,9 @@
       <c r="I79" s="13"/>
     </row>
     <row r="80" spans="1:9" ht="15.75">
-      <c r="A80" s="27"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="34" t="s">
+      <c r="A80" s="34"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="27" t="s">
         <v>104</v>
       </c>
       <c r="D80" s="1"/>
@@ -2385,9 +2385,9 @@
       <c r="I80" s="13"/>
     </row>
     <row r="81" spans="1:9" ht="15.75">
-      <c r="A81" s="27"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="34" t="s">
+      <c r="A81" s="34"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="27" t="s">
         <v>105</v>
       </c>
       <c r="D81" s="1"/>
@@ -2400,9 +2400,9 @@
       <c r="I81" s="13"/>
     </row>
     <row r="82" spans="1:9" ht="15.75">
-      <c r="A82" s="27"/>
-      <c r="B82" s="27"/>
-      <c r="C82" s="34" t="s">
+      <c r="A82" s="34"/>
+      <c r="B82" s="34"/>
+      <c r="C82" s="27" t="s">
         <v>106</v>
       </c>
       <c r="D82" s="1"/>
@@ -2415,9 +2415,9 @@
       <c r="I82" s="13"/>
     </row>
     <row r="83" spans="1:9" ht="15.75">
-      <c r="A83" s="27"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="34" t="s">
+      <c r="A83" s="34"/>
+      <c r="B83" s="34"/>
+      <c r="C83" s="27" t="s">
         <v>107</v>
       </c>
       <c r="D83" s="1"/>
@@ -2430,9 +2430,9 @@
       <c r="I83" s="13"/>
     </row>
     <row r="84" spans="1:9" ht="15.75">
-      <c r="A84" s="27"/>
-      <c r="B84" s="27"/>
-      <c r="C84" s="34" t="s">
+      <c r="A84" s="34"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="27" t="s">
         <v>108</v>
       </c>
       <c r="D84" s="1"/>
@@ -2445,9 +2445,9 @@
       <c r="I84" s="13"/>
     </row>
     <row r="85" spans="1:9" ht="15.75">
-      <c r="A85" s="27"/>
-      <c r="B85" s="27"/>
-      <c r="C85" s="34" t="s">
+      <c r="A85" s="34"/>
+      <c r="B85" s="34"/>
+      <c r="C85" s="27" t="s">
         <v>109</v>
       </c>
       <c r="D85" s="1"/>
@@ -2460,9 +2460,9 @@
       <c r="I85" s="13"/>
     </row>
     <row r="86" spans="1:9" ht="15.75">
-      <c r="A86" s="27"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="34" t="s">
+      <c r="A86" s="34"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="27" t="s">
         <v>110</v>
       </c>
       <c r="D86" s="1"/>
@@ -2475,9 +2475,9 @@
       <c r="I86" s="13"/>
     </row>
     <row r="87" spans="1:9" ht="15.75">
-      <c r="A87" s="27"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="34" t="s">
+      <c r="A87" s="34"/>
+      <c r="B87" s="34"/>
+      <c r="C87" s="27" t="s">
         <v>111</v>
       </c>
       <c r="D87" s="1"/>
@@ -2490,9 +2490,9 @@
       <c r="I87" s="13"/>
     </row>
     <row r="88" spans="1:9" ht="15.75">
-      <c r="A88" s="27"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="34" t="s">
+      <c r="A88" s="34"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="27" t="s">
         <v>112</v>
       </c>
       <c r="D88" s="1"/>
@@ -2505,9 +2505,9 @@
       <c r="I88" s="13"/>
     </row>
     <row r="89" spans="1:9" ht="15.75">
-      <c r="A89" s="27"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="34" t="s">
+      <c r="A89" s="34"/>
+      <c r="B89" s="34"/>
+      <c r="C89" s="27" t="s">
         <v>113</v>
       </c>
       <c r="D89" s="1"/>
@@ -2520,9 +2520,9 @@
       <c r="I89" s="13"/>
     </row>
     <row r="90" spans="1:9" ht="15.75">
-      <c r="A90" s="27"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="34" t="s">
+      <c r="A90" s="34"/>
+      <c r="B90" s="34"/>
+      <c r="C90" s="27" t="s">
         <v>114</v>
       </c>
       <c r="D90" s="1"/>
@@ -2535,9 +2535,9 @@
       <c r="I90" s="13"/>
     </row>
     <row r="91" spans="1:9" ht="15.75">
-      <c r="A91" s="27"/>
-      <c r="B91" s="27"/>
-      <c r="C91" s="34" t="s">
+      <c r="A91" s="34"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="27" t="s">
         <v>115</v>
       </c>
       <c r="D91" s="1"/>
@@ -2550,9 +2550,9 @@
       <c r="I91" s="13"/>
     </row>
     <row r="92" spans="1:9" ht="15.75">
-      <c r="A92" s="27"/>
-      <c r="B92" s="27"/>
-      <c r="C92" s="33" t="s">
+      <c r="A92" s="34"/>
+      <c r="B92" s="34"/>
+      <c r="C92" s="26" t="s">
         <v>116</v>
       </c>
       <c r="D92" s="1"/>
@@ -2563,9 +2563,9 @@
       <c r="I92" s="13"/>
     </row>
     <row r="93" spans="1:9" ht="15.75">
-      <c r="A93" s="27"/>
-      <c r="B93" s="27"/>
-      <c r="C93" s="34" t="s">
+      <c r="A93" s="34"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="27" t="s">
         <v>117</v>
       </c>
       <c r="D93" s="1" t="s">
@@ -2578,9 +2578,9 @@
       <c r="I93" s="13"/>
     </row>
     <row r="94" spans="1:9" ht="15.75">
-      <c r="A94" s="27"/>
-      <c r="B94" s="27"/>
-      <c r="C94" s="34" t="s">
+      <c r="A94" s="34"/>
+      <c r="B94" s="34"/>
+      <c r="C94" s="27" t="s">
         <v>118</v>
       </c>
       <c r="D94" s="1"/>
@@ -2593,7 +2593,7 @@
       <c r="I94" s="13"/>
     </row>
     <row r="95" spans="1:9" ht="15.75">
-      <c r="A95" s="23">
+      <c r="A95" s="30">
         <v>5</v>
       </c>
       <c r="B95" s="29" t="s">
@@ -2610,9 +2610,9 @@
       <c r="I95" s="13"/>
     </row>
     <row r="96" spans="1:9" ht="15.75">
-      <c r="A96" s="24"/>
+      <c r="A96" s="31"/>
       <c r="B96" s="29"/>
-      <c r="C96" s="30" t="s">
+      <c r="C96" s="23" t="s">
         <v>120</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -2625,9 +2625,9 @@
       <c r="I96" s="13"/>
     </row>
     <row r="97" spans="1:9" ht="15.75">
-      <c r="A97" s="24"/>
+      <c r="A97" s="31"/>
       <c r="B97" s="29"/>
-      <c r="C97" s="30" t="s">
+      <c r="C97" s="23" t="s">
         <v>121</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -2640,7 +2640,7 @@
       <c r="I97" s="13"/>
     </row>
     <row r="98" spans="1:9" ht="15.75">
-      <c r="A98" s="24"/>
+      <c r="A98" s="31"/>
       <c r="B98" s="29"/>
       <c r="C98" s="9" t="s">
         <v>122</v>
@@ -2653,9 +2653,9 @@
       <c r="I98" s="13"/>
     </row>
     <row r="99" spans="1:9" ht="15.75">
-      <c r="A99" s="24"/>
+      <c r="A99" s="31"/>
       <c r="B99" s="29"/>
-      <c r="C99" s="30" t="s">
+      <c r="C99" s="23" t="s">
         <v>123</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -2668,9 +2668,9 @@
       <c r="I99" s="13"/>
     </row>
     <row r="100" spans="1:9" ht="15.75">
-      <c r="A100" s="24"/>
+      <c r="A100" s="31"/>
       <c r="B100" s="29"/>
-      <c r="C100" s="30" t="s">
+      <c r="C100" s="23" t="s">
         <v>124</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -2683,9 +2683,9 @@
       <c r="I100" s="13"/>
     </row>
     <row r="101" spans="1:9" ht="15.75">
-      <c r="A101" s="24"/>
+      <c r="A101" s="31"/>
       <c r="B101" s="29"/>
-      <c r="C101" s="30" t="s">
+      <c r="C101" s="23" t="s">
         <v>125</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -2698,9 +2698,9 @@
       <c r="I101" s="13"/>
     </row>
     <row r="102" spans="1:9" ht="15.75">
-      <c r="A102" s="24"/>
+      <c r="A102" s="31"/>
       <c r="B102" s="29"/>
-      <c r="C102" s="32" t="s">
+      <c r="C102" s="25" t="s">
         <v>129</v>
       </c>
       <c r="D102" s="1"/>
@@ -2711,7 +2711,7 @@
       <c r="I102" s="13"/>
     </row>
     <row r="103" spans="1:9" ht="15.75">
-      <c r="A103" s="24"/>
+      <c r="A103" s="31"/>
       <c r="B103" s="29"/>
       <c r="C103" s="10" t="s">
         <v>130</v>
@@ -2726,7 +2726,7 @@
       <c r="I103" s="13"/>
     </row>
     <row r="104" spans="1:9" ht="15.75">
-      <c r="A104" s="24"/>
+      <c r="A104" s="31"/>
       <c r="B104" s="29"/>
       <c r="C104" s="10" t="s">
         <v>131</v>
@@ -2741,7 +2741,7 @@
       <c r="I104" s="13"/>
     </row>
     <row r="105" spans="1:9" ht="15.75">
-      <c r="A105" s="24"/>
+      <c r="A105" s="31"/>
       <c r="B105" s="29"/>
       <c r="C105" s="10" t="s">
         <v>132</v>
@@ -2756,7 +2756,7 @@
       <c r="I105" s="13"/>
     </row>
     <row r="106" spans="1:9" ht="15.75">
-      <c r="A106" s="24"/>
+      <c r="A106" s="31"/>
       <c r="B106" s="29"/>
       <c r="C106" s="10" t="s">
         <v>133</v>
@@ -2771,7 +2771,7 @@
       <c r="I106" s="13"/>
     </row>
     <row r="107" spans="1:9" ht="15.75">
-      <c r="A107" s="24"/>
+      <c r="A107" s="31"/>
       <c r="B107" s="29"/>
       <c r="C107" s="10" t="s">
         <v>134</v>
@@ -2786,7 +2786,7 @@
       <c r="I107" s="13"/>
     </row>
     <row r="108" spans="1:9" ht="15.75">
-      <c r="A108" s="24"/>
+      <c r="A108" s="31"/>
       <c r="B108" s="29"/>
       <c r="C108" s="10" t="s">
         <v>135</v>
@@ -2801,7 +2801,7 @@
       <c r="I108" s="13"/>
     </row>
     <row r="109" spans="1:9" ht="15.75">
-      <c r="A109" s="24"/>
+      <c r="A109" s="31"/>
       <c r="B109" s="29"/>
       <c r="C109" s="10" t="s">
         <v>136</v>
@@ -2816,7 +2816,7 @@
       <c r="I109" s="13"/>
     </row>
     <row r="110" spans="1:9" ht="15.75">
-      <c r="A110" s="24"/>
+      <c r="A110" s="31"/>
       <c r="B110" s="29"/>
       <c r="C110" s="10" t="s">
         <v>137</v>
@@ -2831,7 +2831,7 @@
       <c r="I110" s="13"/>
     </row>
     <row r="111" spans="1:9" ht="15.75">
-      <c r="A111" s="24"/>
+      <c r="A111" s="31"/>
       <c r="B111" s="29"/>
       <c r="C111" s="10" t="s">
         <v>138</v>
@@ -2846,7 +2846,7 @@
       <c r="I111" s="13"/>
     </row>
     <row r="112" spans="1:9" ht="15.75">
-      <c r="A112" s="24"/>
+      <c r="A112" s="31"/>
       <c r="B112" s="29"/>
       <c r="C112" s="10" t="s">
         <v>139</v>
@@ -2861,7 +2861,7 @@
       <c r="I112" s="13"/>
     </row>
     <row r="113" spans="1:9" ht="15.75">
-      <c r="A113" s="24"/>
+      <c r="A113" s="31"/>
       <c r="B113" s="29"/>
       <c r="C113" s="10" t="s">
         <v>140</v>
@@ -2876,7 +2876,7 @@
       <c r="I113" s="13"/>
     </row>
     <row r="114" spans="1:9" ht="15.75">
-      <c r="A114" s="24"/>
+      <c r="A114" s="31"/>
       <c r="B114" s="29"/>
       <c r="C114" s="10" t="s">
         <v>141</v>
@@ -2891,7 +2891,7 @@
       <c r="I114" s="13"/>
     </row>
     <row r="115" spans="1:9" ht="15.75">
-      <c r="A115" s="24"/>
+      <c r="A115" s="31"/>
       <c r="B115" s="29"/>
       <c r="C115" s="10" t="s">
         <v>142</v>
@@ -2906,7 +2906,7 @@
       <c r="I115" s="13"/>
     </row>
     <row r="116" spans="1:9" ht="15.75">
-      <c r="A116" s="24"/>
+      <c r="A116" s="31"/>
       <c r="B116" s="29"/>
       <c r="C116" s="10" t="s">
         <v>143</v>
@@ -2921,7 +2921,7 @@
       <c r="I116" s="13"/>
     </row>
     <row r="117" spans="1:9" ht="15.75">
-      <c r="A117" s="24"/>
+      <c r="A117" s="31"/>
       <c r="B117" s="29"/>
       <c r="C117" s="10" t="s">
         <v>144</v>
@@ -2936,7 +2936,7 @@
       <c r="I117" s="13"/>
     </row>
     <row r="118" spans="1:9" ht="15.75">
-      <c r="A118" s="24"/>
+      <c r="A118" s="31"/>
       <c r="B118" s="29"/>
       <c r="C118" s="10" t="s">
         <v>145</v>
@@ -2951,7 +2951,7 @@
       <c r="I118" s="13"/>
     </row>
     <row r="119" spans="1:9" ht="15.75">
-      <c r="A119" s="24"/>
+      <c r="A119" s="31"/>
       <c r="B119" s="29"/>
       <c r="C119" s="9" t="s">
         <v>126</v>
@@ -2964,9 +2964,9 @@
       <c r="I119" s="13"/>
     </row>
     <row r="120" spans="1:9" ht="15.75">
-      <c r="A120" s="24"/>
+      <c r="A120" s="31"/>
       <c r="B120" s="29"/>
-      <c r="C120" s="30" t="s">
+      <c r="C120" s="23" t="s">
         <v>127</v>
       </c>
       <c r="D120" s="1"/>
@@ -2977,9 +2977,9 @@
       <c r="I120" s="13"/>
     </row>
     <row r="121" spans="1:9" ht="15.75">
-      <c r="A121" s="25"/>
+      <c r="A121" s="32"/>
       <c r="B121" s="29"/>
-      <c r="C121" s="30" t="s">
+      <c r="C121" s="23" t="s">
         <v>128</v>
       </c>
       <c r="D121" s="1"/>
@@ -2990,10 +2990,10 @@
       <c r="I121" s="13"/>
     </row>
     <row r="122" spans="1:9" ht="15.75">
-      <c r="A122" s="23">
+      <c r="A122" s="30">
         <v>6</v>
       </c>
-      <c r="B122" s="26" t="s">
+      <c r="B122" s="33" t="s">
         <v>7</v>
       </c>
       <c r="C122" s="11" t="s">
@@ -3009,8 +3009,8 @@
       <c r="I122" s="13"/>
     </row>
     <row r="123" spans="1:9" ht="15.75">
-      <c r="A123" s="24"/>
-      <c r="B123" s="27"/>
+      <c r="A123" s="31"/>
+      <c r="B123" s="34"/>
       <c r="C123" s="11" t="s">
         <v>24</v>
       </c>
@@ -3022,184 +3022,212 @@
       <c r="I123" s="13"/>
     </row>
     <row r="124" spans="1:9" ht="15.75">
-      <c r="A124" s="24"/>
-      <c r="B124" s="27"/>
+      <c r="A124" s="31"/>
+      <c r="B124" s="34"/>
       <c r="C124" s="10" t="s">
         <v>146</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
+      <c r="F124" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G124" s="1"/>
       <c r="H124" s="13"/>
       <c r="I124" s="13"/>
     </row>
     <row r="125" spans="1:9" ht="15.75">
-      <c r="A125" s="24"/>
-      <c r="B125" s="27"/>
+      <c r="A125" s="31"/>
+      <c r="B125" s="34"/>
       <c r="C125" s="10" t="s">
         <v>147</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
+      <c r="F125" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G125" s="1"/>
       <c r="H125" s="13"/>
       <c r="I125" s="13"/>
     </row>
     <row r="126" spans="1:9" ht="15.75">
-      <c r="A126" s="24"/>
-      <c r="B126" s="27"/>
+      <c r="A126" s="31"/>
+      <c r="B126" s="34"/>
       <c r="C126" s="10" t="s">
         <v>148</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
+      <c r="F126" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G126" s="1"/>
       <c r="H126" s="13"/>
       <c r="I126" s="13"/>
     </row>
     <row r="127" spans="1:9" ht="15.75">
-      <c r="A127" s="24"/>
-      <c r="B127" s="27"/>
+      <c r="A127" s="31"/>
+      <c r="B127" s="34"/>
       <c r="C127" s="10" t="s">
         <v>88</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
+      <c r="F127" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G127" s="1"/>
       <c r="H127" s="13"/>
       <c r="I127" s="13"/>
     </row>
     <row r="128" spans="1:9" ht="15.75">
-      <c r="A128" s="24"/>
-      <c r="B128" s="27"/>
+      <c r="A128" s="31"/>
+      <c r="B128" s="34"/>
       <c r="C128" s="10" t="s">
         <v>149</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
+      <c r="F128" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G128" s="1"/>
       <c r="H128" s="13"/>
       <c r="I128" s="13"/>
     </row>
     <row r="129" spans="1:9" ht="15.75">
-      <c r="A129" s="24"/>
-      <c r="B129" s="27"/>
+      <c r="A129" s="31"/>
+      <c r="B129" s="34"/>
       <c r="C129" s="10" t="s">
         <v>152</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
+      <c r="F129" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G129" s="1"/>
       <c r="H129" s="13"/>
       <c r="I129" s="13"/>
     </row>
     <row r="130" spans="1:9" ht="15.75">
-      <c r="A130" s="24"/>
-      <c r="B130" s="27"/>
+      <c r="A130" s="31"/>
+      <c r="B130" s="34"/>
       <c r="C130" s="10" t="s">
         <v>151</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
+      <c r="F130" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G130" s="1"/>
       <c r="H130" s="13"/>
       <c r="I130" s="13"/>
     </row>
     <row r="131" spans="1:9" ht="15.75">
-      <c r="A131" s="24"/>
-      <c r="B131" s="27"/>
+      <c r="A131" s="31"/>
+      <c r="B131" s="34"/>
       <c r="C131" s="10" t="s">
         <v>150</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
+      <c r="G131" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H131" s="13"/>
       <c r="I131" s="13"/>
     </row>
     <row r="132" spans="1:9" ht="15.75">
-      <c r="A132" s="24"/>
-      <c r="B132" s="27"/>
+      <c r="A132" s="31"/>
+      <c r="B132" s="34"/>
       <c r="C132" s="10" t="s">
         <v>153</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
+      <c r="G132" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H132" s="13"/>
       <c r="I132" s="13"/>
     </row>
     <row r="133" spans="1:9" ht="15.75">
-      <c r="A133" s="24"/>
-      <c r="B133" s="27"/>
+      <c r="A133" s="31"/>
+      <c r="B133" s="34"/>
       <c r="C133" s="10" t="s">
         <v>154</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
+      <c r="G133" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H133" s="13"/>
       <c r="I133" s="13"/>
     </row>
     <row r="134" spans="1:9" ht="15.75">
-      <c r="A134" s="24"/>
-      <c r="B134" s="27"/>
+      <c r="A134" s="31"/>
+      <c r="B134" s="34"/>
       <c r="C134" s="10" t="s">
         <v>89</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
+      <c r="G134" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H134" s="13"/>
       <c r="I134" s="13"/>
     </row>
     <row r="135" spans="1:9" ht="15.75">
-      <c r="A135" s="24"/>
-      <c r="B135" s="27"/>
+      <c r="A135" s="31"/>
+      <c r="B135" s="34"/>
       <c r="C135" s="10" t="s">
         <v>155</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
+      <c r="G135" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H135" s="13"/>
       <c r="I135" s="13"/>
     </row>
     <row r="136" spans="1:9" ht="15.75">
-      <c r="A136" s="24"/>
-      <c r="B136" s="27"/>
-      <c r="C136" s="11" t="s">
+      <c r="A136" s="31"/>
+      <c r="B136" s="34"/>
+      <c r="C136" s="10" t="s">
         <v>156</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
+      <c r="G136" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H136" s="13"/>
       <c r="I136" s="13"/>
     </row>
     <row r="137" spans="1:9" ht="15.75">
-      <c r="A137" s="25"/>
+      <c r="A137" s="32"/>
       <c r="B137" s="28"/>
-      <c r="C137" s="34" t="s">
+      <c r="C137" s="27" t="s">
         <v>157</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
+      <c r="G137" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H137" s="13"/>
       <c r="I137" s="13"/>
     </row>
@@ -3426,18 +3454,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A122:A137"/>
+    <mergeCell ref="B122:B137"/>
+    <mergeCell ref="B95:B121"/>
+    <mergeCell ref="A95:A121"/>
+    <mergeCell ref="B48:B94"/>
+    <mergeCell ref="A48:A94"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B47"/>
     <mergeCell ref="A10:A47"/>
     <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A122:A137"/>
-    <mergeCell ref="B122:B137"/>
-    <mergeCell ref="B95:B121"/>
-    <mergeCell ref="A95:A121"/>
-    <mergeCell ref="B48:B94"/>
-    <mergeCell ref="A48:A94"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:G158">

--- a/trunk/Documents/Report/TasksheetFinal.xlsx
+++ b/trunk/Documents/Report/TasksheetFinal.xlsx
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="159">
   <si>
     <t>No.</t>
   </si>
@@ -598,6 +598,9 @@
   </si>
   <si>
     <t>Update profile</t>
+  </si>
+  <si>
+    <t>Hour</t>
   </si>
 </sst>
 </file>
@@ -836,12 +839,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -855,6 +852,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1155,7 +1158,7 @@
   <dimension ref="A1:I160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="F138" sqref="F138"/>
+      <selection activeCell="K132" sqref="K132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1198,10 +1201,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="28">
-        <v>1</v>
-      </c>
-      <c r="B2" s="28" t="s">
+      <c r="A2" s="33">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -1213,12 +1216,16 @@
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="H2" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="15.75">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
@@ -1228,12 +1235,16 @@
         <v>8</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="H3" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I3" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="15.75">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
@@ -1243,12 +1254,16 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
+      <c r="H4" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I4" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="15.75">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
@@ -1258,14 +1273,18 @@
       <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
+      <c r="H5" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I5" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="15.75">
-      <c r="A6" s="29">
+      <c r="A6" s="34">
         <v>2</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="34" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1277,12 +1296,16 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
+      <c r="H6" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I6" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="15.75">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1292,12 +1315,16 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
+      <c r="H7" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I7" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="15.75">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
@@ -1307,12 +1334,16 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
+      <c r="H8" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I8" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="15.75">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1322,14 +1353,18 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
+      <c r="H9" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I9" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="15.75">
-      <c r="A10" s="29">
+      <c r="A10" s="34">
         <v>3</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="34" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1341,12 +1376,16 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
+      <c r="H10" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I10" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="15.75">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
@@ -1354,12 +1393,12 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="13"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="13"/>
     </row>
     <row r="12" spans="1:9" ht="15.75">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
@@ -1369,12 +1408,16 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
+      <c r="H12" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="15.75">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="6" t="s">
         <v>16</v>
       </c>
@@ -1382,12 +1425,12 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="13"/>
+      <c r="H13" s="15"/>
       <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" ht="15.75">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="7" t="s">
         <v>48</v>
       </c>
@@ -1397,12 +1440,16 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
+      <c r="H14" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I14" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="7" t="s">
         <v>47</v>
       </c>
@@ -1412,12 +1459,16 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
+      <c r="H15" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I15" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="31.5">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="22" t="s">
         <v>49</v>
       </c>
@@ -1427,12 +1478,16 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+      <c r="H16" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I16" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="31.5">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="22" t="s">
         <v>50</v>
       </c>
@@ -1442,12 +1497,16 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
+      <c r="H17" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I17" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="15.75">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="7" t="s">
         <v>51</v>
       </c>
@@ -1457,12 +1516,16 @@
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
+      <c r="H18" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I18" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="31.5">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="22" t="s">
         <v>52</v>
       </c>
@@ -1472,12 +1535,16 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
+      <c r="H19" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I19" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="31.5">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="22" t="s">
         <v>53</v>
       </c>
@@ -1487,12 +1554,16 @@
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
+      <c r="H20" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I20" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="31.5">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="22" t="s">
         <v>54</v>
       </c>
@@ -1502,12 +1573,16 @@
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
+      <c r="H21" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I21" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="15.75">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="7" t="s">
         <v>55</v>
       </c>
@@ -1517,12 +1592,16 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
+      <c r="H22" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I22" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="31.5">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="22" t="s">
         <v>56</v>
       </c>
@@ -1532,12 +1611,16 @@
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
+      <c r="H23" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I23" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="31.5">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="22" t="s">
         <v>57</v>
       </c>
@@ -1547,12 +1630,16 @@
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
+      <c r="H24" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I24" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="31.5">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="22" t="s">
         <v>58</v>
       </c>
@@ -1562,12 +1649,16 @@
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
+      <c r="H25" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I25" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="31.5">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
       <c r="C26" s="22" t="s">
         <v>59</v>
       </c>
@@ -1577,12 +1668,16 @@
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
+      <c r="H26" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I26" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="31.5">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
       <c r="C27" s="22" t="s">
         <v>60</v>
       </c>
@@ -1592,12 +1687,16 @@
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
+      <c r="H27" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I27" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="15.75">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="7" t="s">
         <v>61</v>
       </c>
@@ -1607,12 +1706,16 @@
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
+      <c r="H28" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I28" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="31.5">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="22" t="s">
         <v>62</v>
       </c>
@@ -1622,12 +1725,16 @@
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
+      <c r="H29" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I29" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="31.5">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="22" t="s">
         <v>63</v>
       </c>
@@ -1637,12 +1744,16 @@
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
+      <c r="H30" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I30" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="31.5">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
       <c r="C31" s="22" t="s">
         <v>64</v>
       </c>
@@ -1652,12 +1763,16 @@
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
+      <c r="H31" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I31" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:9" ht="15.75">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="7" t="s">
         <v>65</v>
       </c>
@@ -1667,12 +1782,16 @@
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
+      <c r="H32" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I32" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="31.5">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
       <c r="C33" s="22" t="s">
         <v>66</v>
       </c>
@@ -1682,12 +1801,16 @@
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
+      <c r="H33" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I33" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:9" ht="31.5">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="22" t="s">
         <v>67</v>
       </c>
@@ -1697,12 +1820,16 @@
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
+      <c r="H34" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I34" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="31.5">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
       <c r="C35" s="22" t="s">
         <v>68</v>
       </c>
@@ -1712,12 +1839,16 @@
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
+      <c r="H35" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I35" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:9" ht="31.5">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="22" t="s">
         <v>69</v>
       </c>
@@ -1727,12 +1858,16 @@
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
+      <c r="H36" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I36" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:9" ht="31.5">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
       <c r="C37" s="22" t="s">
         <v>70</v>
       </c>
@@ -1742,12 +1877,16 @@
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
+      <c r="H37" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I37" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:9" ht="31.5">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="34"/>
       <c r="C38" s="22" t="s">
         <v>72</v>
       </c>
@@ -1757,12 +1896,16 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
+      <c r="H38" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I38" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:9" ht="31.5">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="34"/>
       <c r="C39" s="22" t="s">
         <v>71</v>
       </c>
@@ -1772,12 +1915,16 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
+      <c r="H39" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I39" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:9" ht="15.75">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="34"/>
       <c r="C40" s="6" t="s">
         <v>17</v>
       </c>
@@ -1785,12 +1932,12 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="13"/>
+      <c r="H40" s="15"/>
       <c r="I40" s="13"/>
     </row>
     <row r="41" spans="1:9" ht="15.75">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="34"/>
       <c r="C41" s="7" t="s">
         <v>18</v>
       </c>
@@ -1800,12 +1947,16 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
+      <c r="H41" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I41" s="13">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="42" spans="1:9" ht="15.75">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="34"/>
       <c r="C42" s="7" t="s">
         <v>19</v>
       </c>
@@ -1815,12 +1966,16 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
+      <c r="H42" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I42" s="13">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="43" spans="1:9" ht="15.75">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
       <c r="C43" s="7" t="s">
         <v>73</v>
       </c>
@@ -1830,12 +1985,16 @@
         <v>8</v>
       </c>
       <c r="G43" s="1"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
+      <c r="H43" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I43" s="13">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="44" spans="1:9" ht="15.75">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="34"/>
       <c r="C44" s="7" t="s">
         <v>74</v>
       </c>
@@ -1845,12 +2004,16 @@
         <v>8</v>
       </c>
       <c r="G44" s="1"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
+      <c r="H44" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I44" s="13">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="45" spans="1:9" ht="15.75">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="34"/>
       <c r="C45" s="7" t="s">
         <v>75</v>
       </c>
@@ -1860,12 +2023,16 @@
       <c r="G45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
+      <c r="H45" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I45" s="13">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="46" spans="1:9" ht="15.75">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="34"/>
       <c r="C46" s="7" t="s">
         <v>76</v>
       </c>
@@ -1875,12 +2042,16 @@
       <c r="G46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
+      <c r="H46" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I46" s="13">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="47" spans="1:9" ht="15.75">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
       <c r="C47" s="8" t="s">
         <v>20</v>
       </c>
@@ -1890,14 +2061,18 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
+      <c r="H47" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I47" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" spans="1:9" ht="15.75">
-      <c r="A48" s="33">
+      <c r="A48" s="31">
         <v>4</v>
       </c>
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="31" t="s">
         <v>6</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -1909,12 +2084,16 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
+      <c r="H48" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I48" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:9" ht="15.75">
-      <c r="A49" s="34"/>
-      <c r="B49" s="34"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
       <c r="C49" s="3" t="s">
         <v>30</v>
       </c>
@@ -1924,12 +2103,16 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
+      <c r="H49" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I49" s="13">
+        <v>5</v>
+      </c>
     </row>
     <row r="50" spans="1:9" ht="15.75">
-      <c r="A50" s="34"/>
-      <c r="B50" s="34"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
       <c r="C50" s="9" t="s">
         <v>31</v>
       </c>
@@ -1937,12 +2120,12 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="13"/>
+      <c r="H50" s="15"/>
       <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:9" ht="15.75">
-      <c r="A51" s="34"/>
-      <c r="B51" s="34"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
       <c r="C51" s="10" t="s">
         <v>77</v>
       </c>
@@ -1952,12 +2135,16 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
+      <c r="H51" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I51" s="13">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="52" spans="1:9" ht="15.75">
-      <c r="A52" s="34"/>
-      <c r="B52" s="34"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
       <c r="C52" s="10" t="s">
         <v>78</v>
       </c>
@@ -1967,12 +2154,16 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
+      <c r="H52" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I52" s="13">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="53" spans="1:9" ht="15.75">
-      <c r="A53" s="34"/>
-      <c r="B53" s="34"/>
+      <c r="A53" s="32"/>
+      <c r="B53" s="32"/>
       <c r="C53" s="10" t="s">
         <v>79</v>
       </c>
@@ -1982,12 +2173,16 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
+      <c r="H53" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I53" s="13">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="54" spans="1:9" ht="15.75">
-      <c r="A54" s="34"/>
-      <c r="B54" s="34"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="32"/>
       <c r="C54" s="10" t="s">
         <v>80</v>
       </c>
@@ -1997,12 +2192,16 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
+      <c r="H54" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I54" s="13">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="55" spans="1:9" ht="15.75">
-      <c r="A55" s="34"/>
-      <c r="B55" s="34"/>
+      <c r="A55" s="32"/>
+      <c r="B55" s="32"/>
       <c r="C55" s="10" t="s">
         <v>81</v>
       </c>
@@ -2012,12 +2211,16 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
+      <c r="H55" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I55" s="13">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="56" spans="1:9" ht="15.75">
-      <c r="A56" s="34"/>
-      <c r="B56" s="34"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="32"/>
       <c r="C56" s="10" t="s">
         <v>82</v>
       </c>
@@ -2027,12 +2230,16 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
+      <c r="H56" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I56" s="13">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="57" spans="1:9" ht="15.75">
-      <c r="A57" s="34"/>
-      <c r="B57" s="34"/>
+      <c r="A57" s="32"/>
+      <c r="B57" s="32"/>
       <c r="C57" s="10" t="s">
         <v>83</v>
       </c>
@@ -2042,12 +2249,16 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
+      <c r="H57" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I57" s="13">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="58" spans="1:9" ht="15.75">
-      <c r="A58" s="34"/>
-      <c r="B58" s="34"/>
+      <c r="A58" s="32"/>
+      <c r="B58" s="32"/>
       <c r="C58" s="10" t="s">
         <v>84</v>
       </c>
@@ -2057,12 +2268,16 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
+      <c r="H58" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I58" s="13">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="59" spans="1:9" ht="15.75">
-      <c r="A59" s="34"/>
-      <c r="B59" s="34"/>
+      <c r="A59" s="32"/>
+      <c r="B59" s="32"/>
       <c r="C59" s="10" t="s">
         <v>85</v>
       </c>
@@ -2072,12 +2287,16 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
+      <c r="H59" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I59" s="13">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="60" spans="1:9" ht="15.75">
-      <c r="A60" s="34"/>
-      <c r="B60" s="34"/>
+      <c r="A60" s="32"/>
+      <c r="B60" s="32"/>
       <c r="C60" s="10" t="s">
         <v>86</v>
       </c>
@@ -2087,12 +2306,16 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
+      <c r="H60" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I60" s="13">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="61" spans="1:9" ht="15.75">
-      <c r="A61" s="34"/>
-      <c r="B61" s="34"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="32"/>
       <c r="C61" s="10" t="s">
         <v>87</v>
       </c>
@@ -2102,12 +2325,16 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
+      <c r="H61" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I61" s="13">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="62" spans="1:9" ht="15.75">
-      <c r="A62" s="34"/>
-      <c r="B62" s="34"/>
+      <c r="A62" s="32"/>
+      <c r="B62" s="32"/>
       <c r="C62" s="24" t="s">
         <v>22</v>
       </c>
@@ -2115,12 +2342,12 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-      <c r="H62" s="13"/>
+      <c r="H62" s="15"/>
       <c r="I62" s="13"/>
     </row>
     <row r="63" spans="1:9" ht="15.75">
-      <c r="A63" s="34"/>
-      <c r="B63" s="34"/>
+      <c r="A63" s="32"/>
+      <c r="B63" s="32"/>
       <c r="C63" s="23" t="s">
         <v>91</v>
       </c>
@@ -2130,12 +2357,16 @@
         <v>8</v>
       </c>
       <c r="G63" s="1"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
+      <c r="H63" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I63" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:9" ht="15.75">
-      <c r="A64" s="34"/>
-      <c r="B64" s="34"/>
+      <c r="A64" s="32"/>
+      <c r="B64" s="32"/>
       <c r="C64" s="23" t="s">
         <v>92</v>
       </c>
@@ -2145,12 +2376,16 @@
       <c r="G64" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
+      <c r="H64" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I64" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:9" ht="15.75">
-      <c r="A65" s="34"/>
-      <c r="B65" s="34"/>
+      <c r="A65" s="32"/>
+      <c r="B65" s="32"/>
       <c r="C65" s="23" t="s">
         <v>93</v>
       </c>
@@ -2160,12 +2395,16 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
+      <c r="H65" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I65" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="1:9" ht="15.75">
-      <c r="A66" s="34"/>
-      <c r="B66" s="34"/>
+      <c r="A66" s="32"/>
+      <c r="B66" s="32"/>
       <c r="C66" s="23" t="s">
         <v>94</v>
       </c>
@@ -2175,12 +2414,16 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
+      <c r="H66" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I66" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:9" ht="15.75">
-      <c r="A67" s="34"/>
-      <c r="B67" s="34"/>
+      <c r="A67" s="32"/>
+      <c r="B67" s="32"/>
       <c r="C67" s="23" t="s">
         <v>95</v>
       </c>
@@ -2190,12 +2433,16 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
+      <c r="H67" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I67" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:9" ht="15.75">
-      <c r="A68" s="34"/>
-      <c r="B68" s="34"/>
+      <c r="A68" s="32"/>
+      <c r="B68" s="32"/>
       <c r="C68" s="23" t="s">
         <v>96</v>
       </c>
@@ -2205,12 +2452,16 @@
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
+      <c r="H68" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I68" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:9" ht="15.75">
-      <c r="A69" s="34"/>
-      <c r="B69" s="34"/>
+      <c r="A69" s="32"/>
+      <c r="B69" s="32"/>
       <c r="C69" s="23" t="s">
         <v>97</v>
       </c>
@@ -2220,12 +2471,16 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
+      <c r="H69" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I69" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:9" ht="15.75">
-      <c r="A70" s="34"/>
-      <c r="B70" s="34"/>
+      <c r="A70" s="32"/>
+      <c r="B70" s="32"/>
       <c r="C70" s="23" t="s">
         <v>98</v>
       </c>
@@ -2235,12 +2490,16 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
+      <c r="H70" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I70" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:9" ht="15.75">
-      <c r="A71" s="34"/>
-      <c r="B71" s="34"/>
+      <c r="A71" s="32"/>
+      <c r="B71" s="32"/>
       <c r="C71" s="23" t="s">
         <v>99</v>
       </c>
@@ -2250,12 +2509,16 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
+      <c r="H71" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I71" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="1:9" ht="15.75">
-      <c r="A72" s="34"/>
-      <c r="B72" s="34"/>
+      <c r="A72" s="32"/>
+      <c r="B72" s="32"/>
       <c r="C72" s="23" t="s">
         <v>100</v>
       </c>
@@ -2265,12 +2528,16 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
+      <c r="H72" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I72" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:9" ht="15.75">
-      <c r="A73" s="34"/>
-      <c r="B73" s="34"/>
+      <c r="A73" s="32"/>
+      <c r="B73" s="32"/>
       <c r="C73" s="23" t="s">
         <v>101</v>
       </c>
@@ -2280,12 +2547,16 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
+      <c r="H73" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I73" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" spans="1:9" ht="15.75">
-      <c r="A74" s="34"/>
-      <c r="B74" s="34"/>
+      <c r="A74" s="32"/>
+      <c r="B74" s="32"/>
       <c r="C74" s="24" t="s">
         <v>29</v>
       </c>
@@ -2293,12 +2564,12 @@
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
-      <c r="H74" s="13"/>
+      <c r="H74" s="15"/>
       <c r="I74" s="13"/>
     </row>
     <row r="75" spans="1:9" ht="15.75">
-      <c r="A75" s="34"/>
-      <c r="B75" s="34"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="32"/>
       <c r="C75" s="10" t="s">
         <v>88</v>
       </c>
@@ -2308,12 +2579,16 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
+      <c r="H75" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I75" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="76" spans="1:9" ht="15.75">
-      <c r="A76" s="34"/>
-      <c r="B76" s="34"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="32"/>
       <c r="C76" s="10" t="s">
         <v>89</v>
       </c>
@@ -2323,12 +2598,16 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
+      <c r="H76" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I76" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="77" spans="1:9" ht="15.75">
-      <c r="A77" s="34"/>
-      <c r="B77" s="34"/>
+      <c r="A77" s="32"/>
+      <c r="B77" s="32"/>
       <c r="C77" s="10" t="s">
         <v>90</v>
       </c>
@@ -2338,12 +2617,16 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
+      <c r="H77" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I77" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="78" spans="1:9" ht="15.75">
-      <c r="A78" s="34"/>
-      <c r="B78" s="34"/>
+      <c r="A78" s="32"/>
+      <c r="B78" s="32"/>
       <c r="C78" s="26" t="s">
         <v>102</v>
       </c>
@@ -2351,12 +2634,12 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-      <c r="H78" s="13"/>
+      <c r="H78" s="15"/>
       <c r="I78" s="13"/>
     </row>
     <row r="79" spans="1:9" ht="15.75">
-      <c r="A79" s="34"/>
-      <c r="B79" s="34"/>
+      <c r="A79" s="32"/>
+      <c r="B79" s="32"/>
       <c r="C79" s="27" t="s">
         <v>103</v>
       </c>
@@ -2366,12 +2649,16 @@
         <v>8</v>
       </c>
       <c r="G79" s="1"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
+      <c r="H79" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I79" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:9" ht="15.75">
-      <c r="A80" s="34"/>
-      <c r="B80" s="34"/>
+      <c r="A80" s="32"/>
+      <c r="B80" s="32"/>
       <c r="C80" s="27" t="s">
         <v>104</v>
       </c>
@@ -2381,12 +2668,16 @@
         <v>8</v>
       </c>
       <c r="G80" s="1"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
+      <c r="H80" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I80" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" spans="1:9" ht="15.75">
-      <c r="A81" s="34"/>
-      <c r="B81" s="34"/>
+      <c r="A81" s="32"/>
+      <c r="B81" s="32"/>
       <c r="C81" s="27" t="s">
         <v>105</v>
       </c>
@@ -2396,12 +2687,16 @@
         <v>8</v>
       </c>
       <c r="G81" s="1"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
+      <c r="H81" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I81" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="82" spans="1:9" ht="15.75">
-      <c r="A82" s="34"/>
-      <c r="B82" s="34"/>
+      <c r="A82" s="32"/>
+      <c r="B82" s="32"/>
       <c r="C82" s="27" t="s">
         <v>106</v>
       </c>
@@ -2411,12 +2706,16 @@
         <v>8</v>
       </c>
       <c r="G82" s="1"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
+      <c r="H82" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I82" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" spans="1:9" ht="15.75">
-      <c r="A83" s="34"/>
-      <c r="B83" s="34"/>
+      <c r="A83" s="32"/>
+      <c r="B83" s="32"/>
       <c r="C83" s="27" t="s">
         <v>107</v>
       </c>
@@ -2426,12 +2725,16 @@
         <v>8</v>
       </c>
       <c r="G83" s="1"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
+      <c r="H83" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I83" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" spans="1:9" ht="15.75">
-      <c r="A84" s="34"/>
-      <c r="B84" s="34"/>
+      <c r="A84" s="32"/>
+      <c r="B84" s="32"/>
       <c r="C84" s="27" t="s">
         <v>108</v>
       </c>
@@ -2441,12 +2744,16 @@
         <v>8</v>
       </c>
       <c r="G84" s="1"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
+      <c r="H84" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I84" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="85" spans="1:9" ht="15.75">
-      <c r="A85" s="34"/>
-      <c r="B85" s="34"/>
+      <c r="A85" s="32"/>
+      <c r="B85" s="32"/>
       <c r="C85" s="27" t="s">
         <v>109</v>
       </c>
@@ -2456,12 +2763,16 @@
         <v>8</v>
       </c>
       <c r="G85" s="1"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="13"/>
+      <c r="H85" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I85" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" spans="1:9" ht="15.75">
-      <c r="A86" s="34"/>
-      <c r="B86" s="34"/>
+      <c r="A86" s="32"/>
+      <c r="B86" s="32"/>
       <c r="C86" s="27" t="s">
         <v>110</v>
       </c>
@@ -2471,12 +2782,16 @@
       <c r="G86" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H86" s="13"/>
-      <c r="I86" s="13"/>
+      <c r="H86" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I86" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" spans="1:9" ht="15.75">
-      <c r="A87" s="34"/>
-      <c r="B87" s="34"/>
+      <c r="A87" s="32"/>
+      <c r="B87" s="32"/>
       <c r="C87" s="27" t="s">
         <v>111</v>
       </c>
@@ -2486,12 +2801,16 @@
       <c r="G87" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H87" s="13"/>
-      <c r="I87" s="13"/>
+      <c r="H87" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I87" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:9" ht="15.75">
-      <c r="A88" s="34"/>
-      <c r="B88" s="34"/>
+      <c r="A88" s="32"/>
+      <c r="B88" s="32"/>
       <c r="C88" s="27" t="s">
         <v>112</v>
       </c>
@@ -2501,12 +2820,16 @@
       <c r="G88" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H88" s="13"/>
-      <c r="I88" s="13"/>
+      <c r="H88" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I88" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" spans="1:9" ht="15.75">
-      <c r="A89" s="34"/>
-      <c r="B89" s="34"/>
+      <c r="A89" s="32"/>
+      <c r="B89" s="32"/>
       <c r="C89" s="27" t="s">
         <v>113</v>
       </c>
@@ -2516,12 +2839,16 @@
       <c r="G89" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H89" s="13"/>
-      <c r="I89" s="13"/>
+      <c r="H89" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I89" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" spans="1:9" ht="15.75">
-      <c r="A90" s="34"/>
-      <c r="B90" s="34"/>
+      <c r="A90" s="32"/>
+      <c r="B90" s="32"/>
       <c r="C90" s="27" t="s">
         <v>114</v>
       </c>
@@ -2531,12 +2858,16 @@
       <c r="G90" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H90" s="13"/>
-      <c r="I90" s="13"/>
+      <c r="H90" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I90" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="1:9" ht="15.75">
-      <c r="A91" s="34"/>
-      <c r="B91" s="34"/>
+      <c r="A91" s="32"/>
+      <c r="B91" s="32"/>
       <c r="C91" s="27" t="s">
         <v>115</v>
       </c>
@@ -2546,12 +2877,16 @@
       <c r="G91" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
+      <c r="H91" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I91" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" spans="1:9" ht="15.75">
-      <c r="A92" s="34"/>
-      <c r="B92" s="34"/>
+      <c r="A92" s="32"/>
+      <c r="B92" s="32"/>
       <c r="C92" s="26" t="s">
         <v>116</v>
       </c>
@@ -2559,12 +2894,14 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
-      <c r="H92" s="13"/>
+      <c r="H92" s="15" t="s">
+        <v>158</v>
+      </c>
       <c r="I92" s="13"/>
     </row>
     <row r="93" spans="1:9" ht="15.75">
-      <c r="A93" s="34"/>
-      <c r="B93" s="34"/>
+      <c r="A93" s="32"/>
+      <c r="B93" s="32"/>
       <c r="C93" s="27" t="s">
         <v>117</v>
       </c>
@@ -2574,12 +2911,16 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="13"/>
+      <c r="H93" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I93" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="94" spans="1:9" ht="15.75">
-      <c r="A94" s="34"/>
-      <c r="B94" s="34"/>
+      <c r="A94" s="32"/>
+      <c r="B94" s="32"/>
       <c r="C94" s="27" t="s">
         <v>118</v>
       </c>
@@ -2589,14 +2930,18 @@
         <v>8</v>
       </c>
       <c r="G94" s="1"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="13"/>
+      <c r="H94" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I94" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="95" spans="1:9" ht="15.75">
-      <c r="A95" s="30">
+      <c r="A95" s="28">
         <v>5</v>
       </c>
-      <c r="B95" s="29" t="s">
+      <c r="B95" s="34" t="s">
         <v>32</v>
       </c>
       <c r="C95" s="9" t="s">
@@ -2606,12 +2951,12 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
-      <c r="H95" s="13"/>
+      <c r="H95" s="15"/>
       <c r="I95" s="13"/>
     </row>
     <row r="96" spans="1:9" ht="15.75">
-      <c r="A96" s="31"/>
-      <c r="B96" s="29"/>
+      <c r="A96" s="29"/>
+      <c r="B96" s="34"/>
       <c r="C96" s="23" t="s">
         <v>120</v>
       </c>
@@ -2621,12 +2966,16 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
-      <c r="H96" s="13"/>
-      <c r="I96" s="13"/>
+      <c r="H96" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I96" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="97" spans="1:9" ht="15.75">
-      <c r="A97" s="31"/>
-      <c r="B97" s="29"/>
+      <c r="A97" s="29"/>
+      <c r="B97" s="34"/>
       <c r="C97" s="23" t="s">
         <v>121</v>
       </c>
@@ -2636,12 +2985,16 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="13"/>
+      <c r="H97" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I97" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="98" spans="1:9" ht="15.75">
-      <c r="A98" s="31"/>
-      <c r="B98" s="29"/>
+      <c r="A98" s="29"/>
+      <c r="B98" s="34"/>
       <c r="C98" s="9" t="s">
         <v>122</v>
       </c>
@@ -2649,12 +3002,12 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
-      <c r="H98" s="13"/>
+      <c r="H98" s="15"/>
       <c r="I98" s="13"/>
     </row>
     <row r="99" spans="1:9" ht="15.75">
-      <c r="A99" s="31"/>
-      <c r="B99" s="29"/>
+      <c r="A99" s="29"/>
+      <c r="B99" s="34"/>
       <c r="C99" s="23" t="s">
         <v>123</v>
       </c>
@@ -2664,12 +3017,16 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
-      <c r="H99" s="13"/>
-      <c r="I99" s="13"/>
+      <c r="H99" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I99" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="100" spans="1:9" ht="15.75">
-      <c r="A100" s="31"/>
-      <c r="B100" s="29"/>
+      <c r="A100" s="29"/>
+      <c r="B100" s="34"/>
       <c r="C100" s="23" t="s">
         <v>124</v>
       </c>
@@ -2679,12 +3036,16 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="13"/>
+      <c r="H100" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I100" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="101" spans="1:9" ht="15.75">
-      <c r="A101" s="31"/>
-      <c r="B101" s="29"/>
+      <c r="A101" s="29"/>
+      <c r="B101" s="34"/>
       <c r="C101" s="23" t="s">
         <v>125</v>
       </c>
@@ -2694,12 +3055,16 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="13"/>
+      <c r="H101" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I101" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="102" spans="1:9" ht="15.75">
-      <c r="A102" s="31"/>
-      <c r="B102" s="29"/>
+      <c r="A102" s="29"/>
+      <c r="B102" s="34"/>
       <c r="C102" s="25" t="s">
         <v>129</v>
       </c>
@@ -2707,12 +3072,12 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
-      <c r="H102" s="13"/>
+      <c r="H102" s="15"/>
       <c r="I102" s="13"/>
     </row>
     <row r="103" spans="1:9" ht="15.75">
-      <c r="A103" s="31"/>
-      <c r="B103" s="29"/>
+      <c r="A103" s="29"/>
+      <c r="B103" s="34"/>
       <c r="C103" s="10" t="s">
         <v>130</v>
       </c>
@@ -2722,12 +3087,16 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
-      <c r="H103" s="13"/>
-      <c r="I103" s="13"/>
+      <c r="H103" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I103" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="104" spans="1:9" ht="15.75">
-      <c r="A104" s="31"/>
-      <c r="B104" s="29"/>
+      <c r="A104" s="29"/>
+      <c r="B104" s="34"/>
       <c r="C104" s="10" t="s">
         <v>131</v>
       </c>
@@ -2737,12 +3106,16 @@
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
-      <c r="H104" s="13"/>
-      <c r="I104" s="13"/>
+      <c r="H104" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I104" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="105" spans="1:9" ht="15.75">
-      <c r="A105" s="31"/>
-      <c r="B105" s="29"/>
+      <c r="A105" s="29"/>
+      <c r="B105" s="34"/>
       <c r="C105" s="10" t="s">
         <v>132</v>
       </c>
@@ -2752,12 +3125,16 @@
         <v>8</v>
       </c>
       <c r="G105" s="1"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="13"/>
+      <c r="H105" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I105" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="106" spans="1:9" ht="15.75">
-      <c r="A106" s="31"/>
-      <c r="B106" s="29"/>
+      <c r="A106" s="29"/>
+      <c r="B106" s="34"/>
       <c r="C106" s="10" t="s">
         <v>133</v>
       </c>
@@ -2767,12 +3144,16 @@
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
-      <c r="H106" s="13"/>
-      <c r="I106" s="13"/>
+      <c r="H106" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I106" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" spans="1:9" ht="15.75">
-      <c r="A107" s="31"/>
-      <c r="B107" s="29"/>
+      <c r="A107" s="29"/>
+      <c r="B107" s="34"/>
       <c r="C107" s="10" t="s">
         <v>134</v>
       </c>
@@ -2782,12 +3163,16 @@
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
+      <c r="H107" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I107" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="108" spans="1:9" ht="15.75">
-      <c r="A108" s="31"/>
-      <c r="B108" s="29"/>
+      <c r="A108" s="29"/>
+      <c r="B108" s="34"/>
       <c r="C108" s="10" t="s">
         <v>135</v>
       </c>
@@ -2797,12 +3182,16 @@
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
-      <c r="H108" s="13"/>
-      <c r="I108" s="13"/>
+      <c r="H108" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I108" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="109" spans="1:9" ht="15.75">
-      <c r="A109" s="31"/>
-      <c r="B109" s="29"/>
+      <c r="A109" s="29"/>
+      <c r="B109" s="34"/>
       <c r="C109" s="10" t="s">
         <v>136</v>
       </c>
@@ -2812,12 +3201,16 @@
       </c>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
-      <c r="H109" s="13"/>
-      <c r="I109" s="13"/>
+      <c r="H109" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I109" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="110" spans="1:9" ht="15.75">
-      <c r="A110" s="31"/>
-      <c r="B110" s="29"/>
+      <c r="A110" s="29"/>
+      <c r="B110" s="34"/>
       <c r="C110" s="10" t="s">
         <v>137</v>
       </c>
@@ -2827,12 +3220,16 @@
         <v>8</v>
       </c>
       <c r="G110" s="1"/>
-      <c r="H110" s="13"/>
-      <c r="I110" s="13"/>
+      <c r="H110" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I110" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" spans="1:9" ht="15.75">
-      <c r="A111" s="31"/>
-      <c r="B111" s="29"/>
+      <c r="A111" s="29"/>
+      <c r="B111" s="34"/>
       <c r="C111" s="10" t="s">
         <v>138</v>
       </c>
@@ -2842,12 +3239,16 @@
         <v>8</v>
       </c>
       <c r="G111" s="1"/>
-      <c r="H111" s="13"/>
-      <c r="I111" s="13"/>
+      <c r="H111" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I111" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" spans="1:9" ht="15.75">
-      <c r="A112" s="31"/>
-      <c r="B112" s="29"/>
+      <c r="A112" s="29"/>
+      <c r="B112" s="34"/>
       <c r="C112" s="10" t="s">
         <v>139</v>
       </c>
@@ -2857,12 +3258,16 @@
         <v>8</v>
       </c>
       <c r="G112" s="1"/>
-      <c r="H112" s="13"/>
-      <c r="I112" s="13"/>
+      <c r="H112" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I112" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="113" spans="1:9" ht="15.75">
-      <c r="A113" s="31"/>
-      <c r="B113" s="29"/>
+      <c r="A113" s="29"/>
+      <c r="B113" s="34"/>
       <c r="C113" s="10" t="s">
         <v>140</v>
       </c>
@@ -2872,12 +3277,16 @@
         <v>8</v>
       </c>
       <c r="G113" s="1"/>
-      <c r="H113" s="13"/>
-      <c r="I113" s="13"/>
+      <c r="H113" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I113" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="114" spans="1:9" ht="15.75">
-      <c r="A114" s="31"/>
-      <c r="B114" s="29"/>
+      <c r="A114" s="29"/>
+      <c r="B114" s="34"/>
       <c r="C114" s="10" t="s">
         <v>141</v>
       </c>
@@ -2887,12 +3296,16 @@
       <c r="G114" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H114" s="13"/>
-      <c r="I114" s="13"/>
+      <c r="H114" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I114" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="115" spans="1:9" ht="15.75">
-      <c r="A115" s="31"/>
-      <c r="B115" s="29"/>
+      <c r="A115" s="29"/>
+      <c r="B115" s="34"/>
       <c r="C115" s="10" t="s">
         <v>142</v>
       </c>
@@ -2902,12 +3315,16 @@
       <c r="G115" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H115" s="13"/>
-      <c r="I115" s="13"/>
+      <c r="H115" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I115" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="116" spans="1:9" ht="15.75">
-      <c r="A116" s="31"/>
-      <c r="B116" s="29"/>
+      <c r="A116" s="29"/>
+      <c r="B116" s="34"/>
       <c r="C116" s="10" t="s">
         <v>143</v>
       </c>
@@ -2917,12 +3334,16 @@
       <c r="G116" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H116" s="13"/>
-      <c r="I116" s="13"/>
+      <c r="H116" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I116" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" spans="1:9" ht="15.75">
-      <c r="A117" s="31"/>
-      <c r="B117" s="29"/>
+      <c r="A117" s="29"/>
+      <c r="B117" s="34"/>
       <c r="C117" s="10" t="s">
         <v>144</v>
       </c>
@@ -2932,12 +3353,16 @@
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
-      <c r="H117" s="13"/>
-      <c r="I117" s="13"/>
+      <c r="H117" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I117" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="118" spans="1:9" ht="15.75">
-      <c r="A118" s="31"/>
-      <c r="B118" s="29"/>
+      <c r="A118" s="29"/>
+      <c r="B118" s="34"/>
       <c r="C118" s="10" t="s">
         <v>145</v>
       </c>
@@ -2947,12 +3372,16 @@
       <c r="G118" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H118" s="13"/>
-      <c r="I118" s="13"/>
+      <c r="H118" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I118" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="119" spans="1:9" ht="15.75">
-      <c r="A119" s="31"/>
-      <c r="B119" s="29"/>
+      <c r="A119" s="29"/>
+      <c r="B119" s="34"/>
       <c r="C119" s="9" t="s">
         <v>126</v>
       </c>
@@ -2960,12 +3389,12 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
-      <c r="H119" s="13"/>
+      <c r="H119" s="15"/>
       <c r="I119" s="13"/>
     </row>
     <row r="120" spans="1:9" ht="15.75">
-      <c r="A120" s="31"/>
-      <c r="B120" s="29"/>
+      <c r="A120" s="29"/>
+      <c r="B120" s="34"/>
       <c r="C120" s="23" t="s">
         <v>127</v>
       </c>
@@ -2973,12 +3402,16 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
-      <c r="H120" s="13"/>
-      <c r="I120" s="13"/>
+      <c r="H120" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I120" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="121" spans="1:9" ht="15.75">
-      <c r="A121" s="32"/>
-      <c r="B121" s="29"/>
+      <c r="A121" s="30"/>
+      <c r="B121" s="34"/>
       <c r="C121" s="23" t="s">
         <v>128</v>
       </c>
@@ -2986,14 +3419,18 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
-      <c r="H121" s="13"/>
-      <c r="I121" s="13"/>
+      <c r="H121" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I121" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="122" spans="1:9" ht="15.75">
-      <c r="A122" s="30">
+      <c r="A122" s="28">
         <v>6</v>
       </c>
-      <c r="B122" s="33" t="s">
+      <c r="B122" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C122" s="11" t="s">
@@ -3005,25 +3442,29 @@
       <c r="G122" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H122" s="13"/>
-      <c r="I122" s="13"/>
+      <c r="H122" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I122" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="123" spans="1:9" ht="15.75">
-      <c r="A123" s="31"/>
-      <c r="B123" s="34"/>
-      <c r="C123" s="11" t="s">
+      <c r="A123" s="29"/>
+      <c r="B123" s="32"/>
+      <c r="C123" s="24" t="s">
         <v>24</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
-      <c r="H123" s="13"/>
+      <c r="H123" s="15"/>
       <c r="I123" s="13"/>
     </row>
     <row r="124" spans="1:9" ht="15.75">
-      <c r="A124" s="31"/>
-      <c r="B124" s="34"/>
+      <c r="A124" s="29"/>
+      <c r="B124" s="32"/>
       <c r="C124" s="10" t="s">
         <v>146</v>
       </c>
@@ -3033,12 +3474,16 @@
         <v>8</v>
       </c>
       <c r="G124" s="1"/>
-      <c r="H124" s="13"/>
-      <c r="I124" s="13"/>
+      <c r="H124" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I124" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="125" spans="1:9" ht="15.75">
-      <c r="A125" s="31"/>
-      <c r="B125" s="34"/>
+      <c r="A125" s="29"/>
+      <c r="B125" s="32"/>
       <c r="C125" s="10" t="s">
         <v>147</v>
       </c>
@@ -3048,12 +3493,16 @@
         <v>8</v>
       </c>
       <c r="G125" s="1"/>
-      <c r="H125" s="13"/>
-      <c r="I125" s="13"/>
+      <c r="H125" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I125" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="126" spans="1:9" ht="15.75">
-      <c r="A126" s="31"/>
-      <c r="B126" s="34"/>
+      <c r="A126" s="29"/>
+      <c r="B126" s="32"/>
       <c r="C126" s="10" t="s">
         <v>148</v>
       </c>
@@ -3063,12 +3512,16 @@
         <v>8</v>
       </c>
       <c r="G126" s="1"/>
-      <c r="H126" s="13"/>
-      <c r="I126" s="13"/>
+      <c r="H126" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I126" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="127" spans="1:9" ht="15.75">
-      <c r="A127" s="31"/>
-      <c r="B127" s="34"/>
+      <c r="A127" s="29"/>
+      <c r="B127" s="32"/>
       <c r="C127" s="10" t="s">
         <v>88</v>
       </c>
@@ -3078,12 +3531,16 @@
         <v>8</v>
       </c>
       <c r="G127" s="1"/>
-      <c r="H127" s="13"/>
-      <c r="I127" s="13"/>
+      <c r="H127" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I127" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="128" spans="1:9" ht="15.75">
-      <c r="A128" s="31"/>
-      <c r="B128" s="34"/>
+      <c r="A128" s="29"/>
+      <c r="B128" s="32"/>
       <c r="C128" s="10" t="s">
         <v>149</v>
       </c>
@@ -3093,12 +3550,16 @@
         <v>8</v>
       </c>
       <c r="G128" s="1"/>
-      <c r="H128" s="13"/>
-      <c r="I128" s="13"/>
+      <c r="H128" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I128" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="129" spans="1:9" ht="15.75">
-      <c r="A129" s="31"/>
-      <c r="B129" s="34"/>
+      <c r="A129" s="29"/>
+      <c r="B129" s="32"/>
       <c r="C129" s="10" t="s">
         <v>152</v>
       </c>
@@ -3108,12 +3569,16 @@
         <v>8</v>
       </c>
       <c r="G129" s="1"/>
-      <c r="H129" s="13"/>
-      <c r="I129" s="13"/>
+      <c r="H129" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I129" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="130" spans="1:9" ht="15.75">
-      <c r="A130" s="31"/>
-      <c r="B130" s="34"/>
+      <c r="A130" s="29"/>
+      <c r="B130" s="32"/>
       <c r="C130" s="10" t="s">
         <v>151</v>
       </c>
@@ -3123,12 +3588,16 @@
         <v>8</v>
       </c>
       <c r="G130" s="1"/>
-      <c r="H130" s="13"/>
-      <c r="I130" s="13"/>
+      <c r="H130" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I130" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="131" spans="1:9" ht="15.75">
-      <c r="A131" s="31"/>
-      <c r="B131" s="34"/>
+      <c r="A131" s="29"/>
+      <c r="B131" s="32"/>
       <c r="C131" s="10" t="s">
         <v>150</v>
       </c>
@@ -3138,12 +3607,16 @@
       <c r="G131" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H131" s="13"/>
-      <c r="I131" s="13"/>
+      <c r="H131" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I131" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="132" spans="1:9" ht="15.75">
-      <c r="A132" s="31"/>
-      <c r="B132" s="34"/>
+      <c r="A132" s="29"/>
+      <c r="B132" s="32"/>
       <c r="C132" s="10" t="s">
         <v>153</v>
       </c>
@@ -3153,12 +3626,16 @@
       <c r="G132" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H132" s="13"/>
-      <c r="I132" s="13"/>
+      <c r="H132" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I132" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="133" spans="1:9" ht="15.75">
-      <c r="A133" s="31"/>
-      <c r="B133" s="34"/>
+      <c r="A133" s="29"/>
+      <c r="B133" s="32"/>
       <c r="C133" s="10" t="s">
         <v>154</v>
       </c>
@@ -3168,12 +3645,16 @@
       <c r="G133" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H133" s="13"/>
-      <c r="I133" s="13"/>
+      <c r="H133" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I133" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="134" spans="1:9" ht="15.75">
-      <c r="A134" s="31"/>
-      <c r="B134" s="34"/>
+      <c r="A134" s="29"/>
+      <c r="B134" s="32"/>
       <c r="C134" s="10" t="s">
         <v>89</v>
       </c>
@@ -3183,12 +3664,16 @@
       <c r="G134" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H134" s="13"/>
-      <c r="I134" s="13"/>
+      <c r="H134" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I134" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="135" spans="1:9" ht="15.75">
-      <c r="A135" s="31"/>
-      <c r="B135" s="34"/>
+      <c r="A135" s="29"/>
+      <c r="B135" s="32"/>
       <c r="C135" s="10" t="s">
         <v>155</v>
       </c>
@@ -3198,12 +3683,16 @@
       <c r="G135" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H135" s="13"/>
-      <c r="I135" s="13"/>
+      <c r="H135" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I135" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="136" spans="1:9" ht="15.75">
-      <c r="A136" s="31"/>
-      <c r="B136" s="34"/>
+      <c r="A136" s="29"/>
+      <c r="B136" s="32"/>
       <c r="C136" s="10" t="s">
         <v>156</v>
       </c>
@@ -3213,12 +3702,16 @@
       <c r="G136" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H136" s="13"/>
-      <c r="I136" s="13"/>
+      <c r="H136" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I136" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="137" spans="1:9" ht="15.75">
-      <c r="A137" s="32"/>
-      <c r="B137" s="28"/>
+      <c r="A137" s="30"/>
+      <c r="B137" s="33"/>
       <c r="C137" s="27" t="s">
         <v>157</v>
       </c>
@@ -3228,8 +3721,12 @@
       <c r="G137" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H137" s="13"/>
-      <c r="I137" s="13"/>
+      <c r="H137" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I137" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="2"/>
@@ -3454,20 +3951,20 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B47"/>
+    <mergeCell ref="A10:A47"/>
+    <mergeCell ref="A6:A9"/>
     <mergeCell ref="A122:A137"/>
     <mergeCell ref="B122:B137"/>
     <mergeCell ref="B95:B121"/>
     <mergeCell ref="A95:A121"/>
     <mergeCell ref="B48:B94"/>
     <mergeCell ref="A48:A94"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B47"/>
-    <mergeCell ref="A10:A47"/>
-    <mergeCell ref="A6:A9"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:G158">
       <formula1>"O, "</formula1>
     </dataValidation>
